--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_21-10.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_21-10.xlsx
@@ -122,15 +122,18 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>COLOSPASMIN FORTE 135MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
+    <t>FLORAX 24 PIECES</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -230,6 +236,12 @@
     <t>IMMUNO-MASH KIDS SYRUP 100 ML</t>
   </si>
   <si>
+    <t>INDERAL 40MG 50 TABLETS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
     <t>ISOMOISTY NASAL SPRAY 30 ML</t>
   </si>
   <si>
@@ -263,6 +275,9 @@
     <t>MOODAPEX100MG TAB</t>
   </si>
   <si>
+    <t>NEXIBRONCH SYRUP 200 ML</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -284,6 +299,9 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>OXYMET 0.05% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -305,10 +323,19 @@
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
+    <t>STOPADOL 500MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
     <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>TICANASE PLUS 125/50 MCG NASAL SPRAY 15 ML</t>
   </si>
   <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
@@ -1473,17 +1500,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1491,7 +1518,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1499,17 +1526,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>99</v>
+        <v>25.5</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1517,7 +1544,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1525,17 +1552,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1551,17 +1578,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1569,7 +1596,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1577,17 +1604,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1595,7 +1622,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1603,17 +1630,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1629,13 +1656,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1655,13 +1682,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1681,17 +1708,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1707,13 +1734,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1725,7 +1752,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1733,17 +1760,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1759,13 +1786,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1785,17 +1812,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>128.66999999999999</v>
+        <v>43</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1811,13 +1838,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>13.5</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1837,17 +1864,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1863,17 +1890,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1881,7 +1908,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1889,13 +1916,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1915,13 +1942,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1941,13 +1968,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1967,17 +1994,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1993,17 +2020,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2019,17 +2046,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2045,17 +2072,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2071,17 +2098,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>55.670000000000002</v>
+        <v>55</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2097,13 +2124,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2115,7 +2142,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2123,17 +2150,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>74</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2141,7 +2168,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2149,13 +2176,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2175,13 +2202,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>79.200000000000003</v>
+        <v>74</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2201,13 +2228,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2227,17 +2254,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>78</v>
+        <v>79.200000000000003</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2253,17 +2280,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2271,7 +2298,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2279,13 +2306,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2297,7 +2324,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2311,11 +2338,11 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2323,7 +2350,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2331,13 +2358,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2349,7 +2376,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2357,17 +2384,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2383,13 +2410,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2401,7 +2428,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2409,17 +2436,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2427,7 +2454,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2435,17 +2462,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>440</v>
+        <v>36</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2453,7 +2480,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2461,17 +2488,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2479,7 +2506,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2487,17 +2514,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2505,7 +2532,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2513,13 +2540,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2531,7 +2558,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2539,17 +2566,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2557,7 +2584,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2565,17 +2592,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2591,17 +2618,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2617,13 +2644,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2635,7 +2662,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2643,17 +2670,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2661,7 +2688,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2669,17 +2696,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2687,7 +2714,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2695,13 +2722,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2713,7 +2740,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2721,13 +2748,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2739,7 +2766,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2753,7 +2780,7 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>30.09</v>
+        <v>88</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2765,7 +2792,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2779,11 +2806,11 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2791,7 +2818,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2799,17 +2826,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>48.719999999999999</v>
+        <v>24</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2817,7 +2844,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2825,13 +2852,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2843,7 +2870,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2851,17 +2878,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2869,7 +2896,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2877,17 +2904,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2895,7 +2922,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2903,13 +2930,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2921,7 +2948,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2929,17 +2956,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>17</v>
+        <v>30.09</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2955,17 +2982,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>22.5</v>
+        <v>92</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2973,7 +3000,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2981,13 +3008,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -2999,7 +3026,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3007,17 +3034,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>50</v>
+        <v>48.719999999999999</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3025,7 +3052,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3033,17 +3060,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3051,7 +3078,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3059,13 +3086,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3077,7 +3104,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3085,17 +3112,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3103,7 +3130,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3111,17 +3138,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3129,7 +3156,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3137,17 +3164,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3155,7 +3182,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3163,17 +3190,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3181,7 +3208,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3189,13 +3216,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3207,7 +3234,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3215,13 +3242,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3233,7 +3260,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3241,17 +3268,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3259,7 +3286,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3267,7 +3294,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -3281,37 +3308,245 @@
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
-      <c r="K93" s="10">
-        <v>5365.71</v>
-      </c>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
-    </row>
-    <row r="94" ht="17.25" customHeight="1">
-      <c t="s" r="A94" s="11">
+      <c r="A93" s="6">
+        <v>90</v>
+      </c>
+      <c t="s" r="B93" s="7">
+        <v>124</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c t="s" r="H93" s="8">
+        <v>36</v>
+      </c>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="9">
+        <v>30</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c t="s" r="N93" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="24.75" customHeight="1">
+      <c r="A94" s="6">
+        <v>91</v>
+      </c>
+      <c t="s" r="B94" s="7">
+        <v>125</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c t="s" r="H94" s="8">
         <v>126</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c t="s" r="F94" s="12">
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="9">
+        <v>38</v>
+      </c>
+      <c r="M94" s="9"/>
+      <c t="s" r="N94" s="7">
         <v>127</v>
       </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="13"/>
-      <c t="s" r="I94" s="14">
+    </row>
+    <row r="95" ht="25.5" customHeight="1">
+      <c r="A95" s="6">
+        <v>92</v>
+      </c>
+      <c t="s" r="B95" s="7">
         <v>128</v>
       </c>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c t="s" r="H95" s="8">
+        <v>9</v>
+      </c>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="9">
+        <v>45</v>
+      </c>
+      <c r="M95" s="9"/>
+      <c t="s" r="N95" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="24.75" customHeight="1">
+      <c r="A96" s="6">
+        <v>93</v>
+      </c>
+      <c t="s" r="B96" s="7">
+        <v>129</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c t="s" r="H96" s="8">
+        <v>126</v>
+      </c>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="9">
+        <v>15</v>
+      </c>
+      <c r="M96" s="9"/>
+      <c t="s" r="N96" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="6">
+        <v>94</v>
+      </c>
+      <c t="s" r="B97" s="7">
+        <v>130</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c t="s" r="H97" s="8">
+        <v>9</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="9">
+        <v>0</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c t="s" r="N97" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="25.5" customHeight="1">
+      <c r="A98" s="6">
+        <v>95</v>
+      </c>
+      <c t="s" r="B98" s="7">
+        <v>131</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c t="s" r="H98" s="8">
+        <v>126</v>
+      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="9">
+        <v>8</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c t="s" r="N98" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="24.75" customHeight="1">
+      <c r="A99" s="6">
+        <v>96</v>
+      </c>
+      <c t="s" r="B99" s="7">
+        <v>132</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c t="s" r="H99" s="8">
+        <v>133</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="9">
+        <v>24</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c t="s" r="N99" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
+        <v>134</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
+        <v>9</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>20</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c t="s" r="N100" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="K101" s="10">
+        <v>5729.71</v>
+      </c>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="11">
+        <v>135</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c t="s" r="F102" s="12">
+        <v>136</v>
+      </c>
+      <c r="G102" s="12"/>
+      <c r="H102" s="13"/>
+      <c t="s" r="I102" s="14">
+        <v>137</v>
+      </c>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="278">
+  <mergeCells count="302">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3586,10 +3821,34 @@
     <mergeCell ref="B92:G92"/>
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="K101:N101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="I102:N102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
